--- a/resources/data/30/Lập trình Web 2025/sprint.xlsx
+++ b/resources/data/30/Lập trình Web 2025/sprint.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>project_id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>f27d5a34-ecc1-4c32-8fd9-44615cbbed19</t>
+  </si>
+  <si>
+    <t>d74cdee3-a4fc-44b4-bd90-1e53bec5cad1</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,25 +180,25 @@
         <v>10.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -212,25 +215,25 @@
         <v>10.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -247,19 +250,19 @@
         <v>10.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J4" t="n" s="0">
         <v>0.0</v>
@@ -282,19 +285,19 @@
         <v>10.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J5" t="n" s="0">
         <v>1.0</v>
@@ -317,10 +320,10 @@
         <v>10.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
@@ -352,19 +355,19 @@
         <v>10.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J7" t="n" s="0">
         <v>0.0</v>
@@ -387,19 +390,19 @@
         <v>10.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>0.0</v>
@@ -422,22 +425,22 @@
         <v>10.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>2.0</v>
@@ -457,10 +460,10 @@
         <v>10.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>0.0</v>
@@ -492,25 +495,375 @@
         <v>10.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n" s="0">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
